--- a/Reporte_Comparativo.xlsx
+++ b/Reporte_Comparativo.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Precios SDDE" sheetId="2" r:id="rId2"/>
     <sheet name="PDM SANTANDER" sheetId="3" r:id="rId3"/>
     <sheet name="PDM CARLOS RESTREPO" sheetId="4" r:id="rId4"/>
+    <sheet name="PDM TRINIDAD GALAN" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>PDM</t>
   </si>
@@ -40,12 +41,18 @@
     <t>PDM SANTANDER</t>
   </si>
   <si>
+    <t>PDM TRINIDAD GALAN</t>
+  </si>
+  <si>
     <t>Promedio</t>
   </si>
   <si>
     <t>CEBOLLA LARGA</t>
   </si>
   <si>
+    <t>CHATAS</t>
+  </si>
+  <si>
     <t>GENERAL</t>
   </si>
   <si>
@@ -95,6 +102,9 @@
   </si>
   <si>
     <t>GRANOS</t>
+  </si>
+  <si>
+    <t>CÁRNICOS</t>
   </si>
 </sst>
 </file>
@@ -470,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,11 +541,28 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
         <v>26000</v>
       </c>
     </row>
@@ -546,7 +573,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD3"/>
+  <dimension ref="A1:XFD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -561,61 +588,72 @@
     <col min="2" max="16384" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="4">
         <v>45980</v>
       </c>
       <c r="B2" s="1">
         <v>2000</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>2500</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>800</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>1200</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>2500</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="4">
         <v>46022</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4">
+        <v>46032</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9000</v>
       </c>
     </row>
   </sheetData>
@@ -638,30 +676,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>2500</v>
@@ -678,10 +716,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>800</v>
@@ -698,10 +736,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>2500</v>
@@ -718,10 +756,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>2000</v>
@@ -738,10 +776,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>1200</v>
@@ -758,10 +796,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>2000</v>
@@ -778,7 +816,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6">
         <v>11000</v>
@@ -807,53 +845,122 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>15000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-15000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6">
+        <v>15000</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="E2" s="1">
-        <v>-15000</v>
+        <v>9000</v>
       </c>
       <c r="F2" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="6">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="6">
-        <v>0</v>
+        <v>9000</v>
       </c>
     </row>
   </sheetData>
